--- a/ProjetoImpostoRenda.xlsx
+++ b/ProjetoImpostoRenda.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4513588-C433-40D2-B095-7B3CD38FEFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E05901-E00A-4194-A559-7ACDB3756CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{426AD312-7702-45E4-9AF3-D3431D122142}"/>
   </bookViews>
@@ -332,11 +332,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="000&quot;.&quot;000&quot;.&quot;000&quot;-&quot;00"/>
-    <numFmt numFmtId="167" formatCode="00000\-000"/>
-    <numFmt numFmtId="168" formatCode="&quot;(&quot;00&quot;) &quot;0000&quot;-&quot;0000"/>
-    <numFmt numFmtId="169" formatCode="&quot;(&quot;00&quot;) &quot;00000&quot;-&quot;0000"/>
-    <numFmt numFmtId="170" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="176" formatCode="[$-416]mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="00000\-000"/>
+    <numFmt numFmtId="166" formatCode="&quot;(&quot;00&quot;) &quot;0000&quot;-&quot;0000"/>
+    <numFmt numFmtId="167" formatCode="&quot;(&quot;00&quot;) &quot;00000&quot;-&quot;0000"/>
+    <numFmt numFmtId="168" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="169" formatCode="[$-416]mmm\-yy;@"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -530,7 +530,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -538,19 +538,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -566,15 +559,15 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -585,17 +578,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -603,9 +590,21 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -628,22 +627,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <numFmt numFmtId="168" formatCode="&quot;R$&quot;\ #,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -676,6 +660,21 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -939,7 +938,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Retângulo: Cantos Arredondados 5">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B4BAA3F-969C-4CA5-AB68-3D394922A58F}"/>
@@ -1012,7 +1011,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="Retângulo: Cantos Arredondados 6">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD4391F-14C1-4DA4-B3C1-8FB46A0A9FE3}"/>
@@ -1488,7 +1487,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Retângulo: Cantos Arredondados 4">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54230BB0-CEA2-44BB-8D98-3B4DF4AA794C}"/>
@@ -1574,7 +1573,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Retângulo: Cantos Arredondados 5">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E0FFFEF-596B-4988-B6B3-EB12398AFA9E}"/>
@@ -1777,7 +1776,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="Retângulo 10">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{138D92E4-E495-488D-9EB7-4F76033D7BD2}"/>
@@ -1839,7 +1838,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="Retângulo 12">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B12FD7A-5BB9-40EA-B422-D6717DCE51A7}"/>
@@ -2117,7 +2116,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Retângulo: Cantos Arredondados 4">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC3D7B6D-FE95-4F23-BE7D-88BC8226409F}"/>
@@ -2190,7 +2189,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Retângulo: Cantos Arredondados 5">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8CEA528-BED8-4C71-B430-E234367A2A7E}"/>
@@ -2461,12 +2460,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C7846D1-7030-4BF4-8B16-DCA5A4D8ADAE}" name="Tabela1" displayName="Tabela1" ref="C7:E30" totalsRowShown="0" headerRowDxfId="4" dataDxfId="0" headerRowCellStyle="Ênfase5" dataCellStyle="Ênfase5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C7846D1-7030-4BF4-8B16-DCA5A4D8ADAE}" name="Tabela1" displayName="Tabela1" ref="C7:E30" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="C7:E30" xr:uid="{6C7846D1-7030-4BF4-8B16-DCA5A4D8ADAE}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CE24B313-45D3-4701-B136-3AD1F725A120}" name="DATA" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{6859DED6-8840-42B0-BDAB-99F9CEBF8E52}" name="CATEGORIA " dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{CB207D27-6975-45B5-BB61-6BF05E8BF09A}" name="VALOR" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{CE24B313-45D3-4701-B136-3AD1F725A120}" name="DATA" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{6859DED6-8840-42B0-BDAB-99F9CEBF8E52}" name="CATEGORIA " dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{CB207D27-6975-45B5-BB61-6BF05E8BF09A}" name="VALOR" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2792,7 +2791,7 @@
   <dimension ref="A3:E23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2809,18 +2808,18 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="3:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="3:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2828,7 +2827,7 @@
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="11">
         <v>12345678910</v>
       </c>
     </row>
@@ -2836,7 +2835,7 @@
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2844,7 +2843,7 @@
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2852,7 +2851,7 @@
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="10" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2860,7 +2859,7 @@
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2868,7 +2867,7 @@
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="10" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2876,7 +2875,7 @@
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="13">
         <v>12345678</v>
       </c>
     </row>
@@ -2884,7 +2883,7 @@
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="14">
         <v>1323456789</v>
       </c>
     </row>
@@ -2892,7 +2891,7 @@
       <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="15">
         <v>13987654321</v>
       </c>
     </row>
@@ -2900,7 +2899,7 @@
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2908,7 +2907,7 @@
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2916,7 +2915,7 @@
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2924,7 +2923,7 @@
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2973,111 +2972,109 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="3:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="3:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C7" s="22">
+      <c r="C7" s="23">
         <f>SUM(D11,D16,D21)</f>
         <v>1937000</v>
       </c>
-      <c r="D7" s="23"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="18">
         <v>1000000</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="17" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="17" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="18">
         <v>825000</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="17" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="18">
         <v>112000</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="17" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3114,7 +3111,7 @@
   <dimension ref="A3:E31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3131,163 +3128,163 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="3:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="3:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="3:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C8" s="24">
+      <c r="C8" s="19">
         <v>45688</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="21">
         <v>20000</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C9" s="24">
+      <c r="C9" s="19">
         <v>45678</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="21">
         <v>100000</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C10" s="24">
+      <c r="C10" s="19">
         <v>45691</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="21">
         <v>60000</v>
       </c>
     </row>
     <row r="11" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
     </row>
     <row r="13" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
     </row>
     <row r="14" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
     </row>
     <row r="20" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
     </row>
     <row r="21" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="26"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
     </row>
     <row r="27" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C27" s="24"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
     </row>
     <row r="28" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C28" s="24"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C29" s="24"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="26"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
@@ -3324,258 +3321,258 @@
     <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+      <c r="A23" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="A24" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="A25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="A26" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="A27" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="A28" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="A29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="A30" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+      <c r="A31" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+      <c r="A32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+      <c r="A33" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+      <c r="A34" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
+      <c r="A35" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
+      <c r="A36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+      <c r="A37" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
+      <c r="A38" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+      <c r="A39" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
+      <c r="A40" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
+      <c r="A41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
+      <c r="A42" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
+      <c r="A43" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
+      <c r="A44" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
+      <c r="A45" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
+      <c r="A46" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
+      <c r="A47" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
+      <c r="A48" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
+      <c r="A49" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
+      <c r="A50" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
+      <c r="A51" t="s">
         <v>76</v>
       </c>
     </row>
